--- a/data/trans_bre/PCS12_SP_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.467528685558045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.571591753702207</v>
+        <v>-2.571591753702212</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1967663529644889</v>
@@ -649,7 +649,7 @@
         <v>-0.04232005703803669</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.0561335539274478</v>
+        <v>-0.05613355392744792</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3738506177546334</v>
+        <v>0.782807473061106</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.900016702512654</v>
+        <v>-1.013476682543097</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.079105516359943</v>
+        <v>-8.272677640404114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.385826947481508</v>
+        <v>-8.726973463455121</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.006989008293374493</v>
+        <v>0.01775741715049301</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.05161630459527972</v>
+        <v>-0.03150753399603236</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2394743024519391</v>
+        <v>-0.2175559358446832</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1689719286137416</v>
+        <v>-0.1761623048541613</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.09729842483969</v>
+        <v>15.75481544609348</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.36596943803772</v>
+        <v>14.50094927501243</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.658788585281851</v>
+        <v>5.494343385949449</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.491516289580875</v>
+        <v>3.330495271654143</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4061799769590035</v>
+        <v>0.417845528943992</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4255450886898252</v>
+        <v>0.423773080952757</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1801776996436909</v>
+        <v>0.1700361869445597</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.08103648167640931</v>
+        <v>0.07994342267658774</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.412988822474251</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.311007466550736</v>
+        <v>3.311007466550742</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02763407977025252</v>
@@ -749,7 +749,7 @@
         <v>0.1341944288521811</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.07792986641937066</v>
+        <v>0.0779298664193708</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.838240712756164</v>
+        <v>-5.522642011847982</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.94533384470206</v>
+        <v>-11.38874478799959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.333414065495392</v>
+        <v>-2.709553655952792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.759611289538744</v>
+        <v>-2.779377929705605</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1384452305976306</v>
+        <v>-0.1287193029658674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2309988850543815</v>
+        <v>-0.231918740165866</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0670225997949695</v>
+        <v>-0.07499990939582626</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05902073124278665</v>
+        <v>-0.06159538838034992</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.347396780857499</v>
+        <v>9.236496188646695</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.386451076085448</v>
+        <v>4.497275846394086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.85817095830585</v>
+        <v>11.42740732069639</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.764555967475562</v>
+        <v>9.664825823847043</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2343449203578789</v>
+        <v>0.2709025306306275</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1095932493784736</v>
+        <v>0.1066218102163418</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4173749274505631</v>
+        <v>0.3941497643386995</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.252968639817684</v>
+        <v>0.245127841257348</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.827746979771907</v>
+        <v>3.262050240350724</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.303377620341343</v>
+        <v>-1.516660788638539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.920775585204197</v>
+        <v>-4.479310340700892</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.028123228180078</v>
+        <v>2.21208036086787</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05415818399509754</v>
+        <v>0.07555482121860066</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.02529174100883963</v>
+        <v>-0.02713145098824935</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1267583772690111</v>
+        <v>-0.100047060539316</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.03767687721244709</v>
+        <v>0.04288593701919809</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.3675006872296</v>
+        <v>21.03498015343086</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.56195105458299</v>
+        <v>13.69013809464622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.26238655593221</v>
+        <v>13.55400461002404</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.87509909432347</v>
+        <v>18.06233671809019</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4855553402938558</v>
+        <v>0.4986568125460841</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2896836581851889</v>
+        <v>0.2866083179036524</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3142995051577797</v>
+        <v>0.3297203284395315</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4011155365004206</v>
+        <v>0.4078518458737184</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.816816956441907</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.142204724719761</v>
+        <v>4.142204724719773</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1306852651429845</v>
@@ -949,7 +949,7 @@
         <v>0.01883136229570235</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.08666579821627189</v>
+        <v>0.08666579821627211</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.19291231497892</v>
+        <v>1.506754365934648</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.135935680133851</v>
+        <v>-4.195336772506963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.052458622164719</v>
+        <v>-3.209754654086205</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.3533739315400503</v>
+        <v>-0.1937546049960661</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02445366645524452</v>
+        <v>0.02920224905948603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.08388349482962028</v>
+        <v>-0.08701410891800283</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09045921712001183</v>
+        <v>-0.07172830072001486</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.007117189214844272</v>
+        <v>-0.003860986552629494</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.51801279736081</v>
+        <v>11.26792894431112</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.424583878793962</v>
+        <v>5.556327968582506</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.135848617965223</v>
+        <v>5.420894754470712</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.105547023495811</v>
+        <v>8.342015152246326</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2263032023219096</v>
+        <v>0.2415183900528347</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1202832449720355</v>
+        <v>0.1233707117624262</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1225632554006124</v>
+        <v>0.1301291059480532</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1790319267433141</v>
+        <v>0.1833684452566935</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.193819731199492</v>
+        <v>2.38275025690032</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.512242015339401</v>
+        <v>9.639729141245068</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.848994604063907</v>
+        <v>7.746180127266967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.963197080361796</v>
+        <v>3.763362701320831</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03962797103203731</v>
+        <v>0.04513404465940687</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1883739741582781</v>
+        <v>0.19134586047333</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1724244054551441</v>
+        <v>0.1726126618833153</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0516506601984269</v>
+        <v>0.06851168209252566</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.08091783009799</v>
+        <v>16.17669955326794</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.89610972385372</v>
+        <v>21.28032297788296</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.50173108423781</v>
+        <v>18.05848390478426</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.12381186988444</v>
+        <v>14.49236317390657</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3620399174496492</v>
+        <v>0.3551877381056022</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4830429626434648</v>
+        <v>0.487598930855443</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4832833730953561</v>
+        <v>0.4673358556265254</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.29314625477571</v>
+        <v>0.3011767651295917</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>42.35275704786402</v>
+        <v>42.1812097541177</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>29.70974100930773</v>
+        <v>30.37921924794401</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26.945395915768</v>
+        <v>26.82404875351166</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26.41504363061145</v>
+        <v>25.62108788086475</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.925031911751725</v>
+        <v>1.932915228398399</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.018242009289989</v>
+        <v>1.03494312311684</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.044420881296904</v>
+        <v>1.030999629565697</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.9198485079995897</v>
+        <v>0.9335192386419638</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>52.47449459857375</v>
+        <v>53.1949161645521</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>42.59357817014894</v>
+        <v>42.60091947618053</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38.52337900920645</v>
+        <v>38.32114317867185</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43.30958543528308</v>
+        <v>43.1278117953965</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.694633724333067</v>
+        <v>4.031968403174034</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.276365155569604</v>
+        <v>2.285242713526092</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.322742598763771</v>
+        <v>2.281470565368083</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.231133606505268</v>
+        <v>3.309316411943332</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>8.788351804733713</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.761416221072398</v>
+        <v>7.761416221072404</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3389355524322921</v>
@@ -1249,7 +1249,7 @@
         <v>0.2255168886724703</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1709764746135881</v>
+        <v>0.1709764746135882</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>11.73895228131723</v>
+        <v>11.88373563211446</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.772178402431454</v>
+        <v>7.743371721786478</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.190912080217859</v>
+        <v>6.273989275476749</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.388615796211442</v>
+        <v>5.670280800249154</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2686044688588925</v>
+        <v>0.2690183694689106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1730727160866946</v>
+        <v>0.1711413051381675</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1547058865039029</v>
+        <v>0.1532596603806622</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1148168143442148</v>
+        <v>0.1200801357404431</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.55518363064113</v>
+        <v>16.88787518964142</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.7076017694446</v>
+        <v>12.54056227716673</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.22298061485272</v>
+        <v>11.17206112651481</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.13196423608791</v>
+        <v>10.23001813043598</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4001375020210385</v>
+        <v>0.4094545866800677</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.300057676746542</v>
+        <v>0.2956933171260841</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2994997609556359</v>
+        <v>0.2918450089433975</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2304664696177636</v>
+        <v>0.2331440458133064</v>
       </c>
     </row>
     <row r="25">
